--- a/medicine/Sexualité et sexologie/Dynamite_Girls/Dynamite_Girls.xlsx
+++ b/medicine/Sexualité et sexologie/Dynamite_Girls/Dynamite_Girls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamite Girls (The Great Texas Dynamite Chase) est une comédie policière érotique américaine sortie en 1976[1],[2], réalisée par Michael Pressman au début de sa carrière de réalisateur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamite Girls (The Great Texas Dynamite Chase) est une comédie policière érotique américaine sortie en 1976 réalisée par Michael Pressman au début de sa carrière de réalisateur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Évadée de prison, Candy Morgan entre dans une banque du Texas, et menace de tout faire sauter avec un bâton de dynamite. La réceptionniste, Ellie-Jo Turner, qui vient de se faire virer par son patron pour ses retards répétés, l'aide à réussir son holdup. Peu après, Candy prend Ellie-Jo qui fait de l'auto-stop. Les deux filles décident de faire équipe pour réitérer l'aventure du premier holdup. Candy séduit le gardien d'une réserve de dynamite, et l'aventure continue. Un jour, elles prennent Slim en otage au cours du braquage d'un magasin. Il s'intègre facilement à la bande, et file avec Ellie-Jo le parfait amour, jusqu'à ce que les policiers retrouvent leurs traces.
 </t>
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre en France : Dynamite Girls[3]
-Titre original anglais : The Great Texas Dynamite Chase ou Dynamite Women[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre en France : Dynamite Girls
+Titre original anglais : The Great Texas Dynamite Chase ou Dynamite Women
 Genres : comédie, policier, érotique
 Réalisation : Michael Pressman
 Scénario : David Kirkpatrick
@@ -560,8 +576,8 @@
 Studio : Yasny Talking Pictures II
 Distribution : New World Pictures
 Dates de sortie en salle :
-États-Unis : 18 août 1976[5]
-France : 25 mai 1977[3]</t>
+États-Unis : 18 août 1976
+France : 25 mai 1977</t>
         </is>
       </c>
     </row>
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Claudia Jennings : Candy Morgan
 Tara Strohmeier : Pam Morgan
@@ -634,11 +652,13 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le magazine Variety décrit le film comme : « a good example of a well-made exploitation film which works on two levels, providing kicks for the ozoner crowd and tongue-in-cheek humor for the more sophisticated » (« un bon exemple de film d'exploitation bien fait qui fonctionne à deux niveaux, offrant des blagues pour la foule des ciné-parcs et un humour pince-sans-rire pour les plus sophistiqués »)[4].
-Pour Vincent Canby du The New York Times : « Like every other low-budget, regional melodrama of this kind, the movie is virtually constructed of automobile chases in which every shot of the lead car turning a corner, hitting a bump or swerving to avoid a truck must be repeated by a shot of the pursuing car dealing with the same set of circumstances » (« Comme tous les autres mélodrames régionaux à petit budget de ce type, le film est pratiquement construit à partir de poursuites automobiles dans lesquelles chaque plan de la voiture de tête prenant un virage, heurtant une bosse ou faisant une embardée pour éviter un camion doit être répété par un plan de la voiture poursuivante face au même ensemble de circonstances »)[6].
-Pour Linda Gross du Los Angeles Times : « Producer David Irving makes an auspicious first feature debut in this stylish and enjoyable fantasy about friendship among thieves » (« Le producteur David Irving fait un premier long métrage de bon augure dans cette fiction élégante et agréable sur l'amitié entre voleurs »)[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine Variety décrit le film comme : « a good example of a well-made exploitation film which works on two levels, providing kicks for the ozoner crowd and tongue-in-cheek humor for the more sophisticated » (« un bon exemple de film d'exploitation bien fait qui fonctionne à deux niveaux, offrant des blagues pour la foule des ciné-parcs et un humour pince-sans-rire pour les plus sophistiqués »).
+Pour Vincent Canby du The New York Times : « Like every other low-budget, regional melodrama of this kind, the movie is virtually constructed of automobile chases in which every shot of the lead car turning a corner, hitting a bump or swerving to avoid a truck must be repeated by a shot of the pursuing car dealing with the same set of circumstances » (« Comme tous les autres mélodrames régionaux à petit budget de ce type, le film est pratiquement construit à partir de poursuites automobiles dans lesquelles chaque plan de la voiture de tête prenant un virage, heurtant une bosse ou faisant une embardée pour éviter un camion doit être répété par un plan de la voiture poursuivante face au même ensemble de circonstances »).
+Pour Linda Gross du Los Angeles Times : « Producer David Irving makes an auspicious first feature debut in this stylish and enjoyable fantasy about friendship among thieves » (« Le producteur David Irving fait un premier long métrage de bon augure dans cette fiction élégante et agréable sur l'amitié entre voleurs »).
 </t>
         </is>
       </c>
